--- a/contratos/contratos-8-2011.xlsx
+++ b/contratos/contratos-8-2011.xlsx
@@ -634,13 +634,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -1078,415 +1078,415 @@
     <t>98</t>
   </si>
   <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>3.047,85</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>49.999,91</t>
-  </si>
-  <si>
-    <t>7.674,43</t>
-  </si>
-  <si>
-    <t>10.932,00</t>
-  </si>
-  <si>
-    <t>10.223,00</t>
-  </si>
-  <si>
-    <t>34.650,00</t>
-  </si>
-  <si>
-    <t>73.144,94</t>
-  </si>
-  <si>
-    <t>18.948,46</t>
-  </si>
-  <si>
-    <t>11.880,00</t>
-  </si>
-  <si>
-    <t>16.129,26</t>
-  </si>
-  <si>
-    <t>2.448,74</t>
-  </si>
-  <si>
-    <t>17.233,46</t>
-  </si>
-  <si>
-    <t>528,00</t>
-  </si>
-  <si>
-    <t>294,50</t>
-  </si>
-  <si>
-    <t>10.014,65</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>3.468,50</t>
-  </si>
-  <si>
-    <t>7.643,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>624,80</t>
-  </si>
-  <si>
-    <t>98.385,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>20.093,70</t>
-  </si>
-  <si>
-    <t>1.846,00</t>
-  </si>
-  <si>
-    <t>22.902,56</t>
-  </si>
-  <si>
-    <t>327,04</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>5.972,75</t>
-  </si>
-  <si>
-    <t>807,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>42.100,84</t>
-  </si>
-  <si>
-    <t>21.030,00</t>
-  </si>
-  <si>
-    <t>90,35</t>
-  </si>
-  <si>
-    <t>2.099,71</t>
-  </si>
-  <si>
-    <t>4.040,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>183,82</t>
-  </si>
-  <si>
-    <t>387,00</t>
-  </si>
-  <si>
-    <t>16.620,00</t>
-  </si>
-  <si>
-    <t>1.186,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>856,00</t>
-  </si>
-  <si>
-    <t>15.456,00</t>
-  </si>
-  <si>
-    <t>26.470,00</t>
-  </si>
-  <si>
-    <t>5.858,60</t>
-  </si>
-  <si>
-    <t>10.981,60</t>
-  </si>
-  <si>
-    <t>474,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>227,00</t>
-  </si>
-  <si>
-    <t>389,00</t>
-  </si>
-  <si>
-    <t>239,06</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>90,09</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>376,61</t>
-  </si>
-  <si>
-    <t>49,92</t>
-  </si>
-  <si>
-    <t>1.987,60</t>
-  </si>
-  <si>
-    <t>6.293,50</t>
-  </si>
-  <si>
-    <t>183,80</t>
-  </si>
-  <si>
-    <t>3.245,00</t>
-  </si>
-  <si>
-    <t>591,40</t>
-  </si>
-  <si>
-    <t>2.428,20</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>6.539,75</t>
-  </si>
-  <si>
-    <t>3.787,75</t>
-  </si>
-  <si>
-    <t>946,78</t>
-  </si>
-  <si>
-    <t>5.563,00</t>
-  </si>
-  <si>
-    <t>508,00</t>
-  </si>
-  <si>
-    <t>17.771,00</t>
-  </si>
-  <si>
-    <t>403,46</t>
-  </si>
-  <si>
-    <t>792,23</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>19.680,00</t>
-  </si>
-  <si>
-    <t>82.800,00</t>
-  </si>
-  <si>
-    <t>131,72</t>
-  </si>
-  <si>
-    <t>1.842,00</t>
-  </si>
-  <si>
-    <t>175,64</t>
-  </si>
-  <si>
-    <t>5.338,00</t>
-  </si>
-  <si>
-    <t>5.808,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>4.736,91</t>
-  </si>
-  <si>
-    <t>905,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>17.901,01</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.550,00</t>
-  </si>
-  <si>
-    <t>4.140,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>17.180,00</t>
-  </si>
-  <si>
-    <t>6.655,50</t>
-  </si>
-  <si>
-    <t>1.633,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>209,99</t>
-  </si>
-  <si>
-    <t>178,41</t>
-  </si>
-  <si>
-    <t>1.831,98</t>
-  </si>
-  <si>
-    <t>876,00</t>
-  </si>
-  <si>
-    <t>1.886,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>5.205,00</t>
-  </si>
-  <si>
-    <t>601,02</t>
-  </si>
-  <si>
-    <t>669,09</t>
-  </si>
-  <si>
-    <t>144,00</t>
-  </si>
-  <si>
-    <t>7.847,20</t>
-  </si>
-  <si>
-    <t>1.523,00</t>
-  </si>
-  <si>
-    <t>173,85</t>
-  </si>
-  <si>
-    <t>2.963,99</t>
-  </si>
-  <si>
-    <t>917,18</t>
-  </si>
-  <si>
-    <t>47.086,00</t>
-  </si>
-  <si>
-    <t>421.346,21</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>7.256,34</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>360.400,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>280.958,00</t>
-  </si>
-  <si>
-    <t>306.120,00</t>
-  </si>
-  <si>
-    <t>360.000,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>51.650,00</t>
-  </si>
-  <si>
-    <t>173,75</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>3047.85</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>49999.91</t>
+  </si>
+  <si>
+    <t>7674.43</t>
+  </si>
+  <si>
+    <t>10932.00</t>
+  </si>
+  <si>
+    <t>10223.00</t>
+  </si>
+  <si>
+    <t>34650.00</t>
+  </si>
+  <si>
+    <t>73144.94</t>
+  </si>
+  <si>
+    <t>18948.46</t>
+  </si>
+  <si>
+    <t>11880.00</t>
+  </si>
+  <si>
+    <t>16129.26</t>
+  </si>
+  <si>
+    <t>2448.74</t>
+  </si>
+  <si>
+    <t>17233.46</t>
+  </si>
+  <si>
+    <t>528.00</t>
+  </si>
+  <si>
+    <t>294.50</t>
+  </si>
+  <si>
+    <t>10014.65</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>3468.50</t>
+  </si>
+  <si>
+    <t>7643.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>624.80</t>
+  </si>
+  <si>
+    <t>98385.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>20093.70</t>
+  </si>
+  <si>
+    <t>1846.00</t>
+  </si>
+  <si>
+    <t>22902.56</t>
+  </si>
+  <si>
+    <t>327.04</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>5972.75</t>
+  </si>
+  <si>
+    <t>807.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>42100.84</t>
+  </si>
+  <si>
+    <t>21030.00</t>
+  </si>
+  <si>
+    <t>90.35</t>
+  </si>
+  <si>
+    <t>2099.71</t>
+  </si>
+  <si>
+    <t>4040.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>183.82</t>
+  </si>
+  <si>
+    <t>387.00</t>
+  </si>
+  <si>
+    <t>16620.00</t>
+  </si>
+  <si>
+    <t>1186.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>856.00</t>
+  </si>
+  <si>
+    <t>15456.00</t>
+  </si>
+  <si>
+    <t>26470.00</t>
+  </si>
+  <si>
+    <t>5858.60</t>
+  </si>
+  <si>
+    <t>10981.60</t>
+  </si>
+  <si>
+    <t>474.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>227.00</t>
+  </si>
+  <si>
+    <t>389.00</t>
+  </si>
+  <si>
+    <t>239.06</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>90.09</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>376.61</t>
+  </si>
+  <si>
+    <t>49.92</t>
+  </si>
+  <si>
+    <t>1987.60</t>
+  </si>
+  <si>
+    <t>6293.50</t>
+  </si>
+  <si>
+    <t>183.80</t>
+  </si>
+  <si>
+    <t>3245.00</t>
+  </si>
+  <si>
+    <t>591.40</t>
+  </si>
+  <si>
+    <t>2428.20</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>6539.75</t>
+  </si>
+  <si>
+    <t>3787.75</t>
+  </si>
+  <si>
+    <t>946.78</t>
+  </si>
+  <si>
+    <t>5563.00</t>
+  </si>
+  <si>
+    <t>508.00</t>
+  </si>
+  <si>
+    <t>17771.00</t>
+  </si>
+  <si>
+    <t>403.46</t>
+  </si>
+  <si>
+    <t>792.23</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>19680.00</t>
+  </si>
+  <si>
+    <t>82800.00</t>
+  </si>
+  <si>
+    <t>131.72</t>
+  </si>
+  <si>
+    <t>1842.00</t>
+  </si>
+  <si>
+    <t>175.64</t>
+  </si>
+  <si>
+    <t>5338.00</t>
+  </si>
+  <si>
+    <t>5808.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>4736.91</t>
+  </si>
+  <si>
+    <t>905.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>17901.01</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1550.00</t>
+  </si>
+  <si>
+    <t>4140.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>17180.00</t>
+  </si>
+  <si>
+    <t>6655.50</t>
+  </si>
+  <si>
+    <t>1633.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>209.99</t>
+  </si>
+  <si>
+    <t>178.41</t>
+  </si>
+  <si>
+    <t>1831.98</t>
+  </si>
+  <si>
+    <t>876.00</t>
+  </si>
+  <si>
+    <t>1886.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>5205.00</t>
+  </si>
+  <si>
+    <t>601.02</t>
+  </si>
+  <si>
+    <t>669.09</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>7847.20</t>
+  </si>
+  <si>
+    <t>1523.00</t>
+  </si>
+  <si>
+    <t>173.85</t>
+  </si>
+  <si>
+    <t>2963.99</t>
+  </si>
+  <si>
+    <t>917.18</t>
+  </si>
+  <si>
+    <t>47086.00</t>
+  </si>
+  <si>
+    <t>421346.21</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>7256.34</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>360400.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>280958.00</t>
+  </si>
+  <si>
+    <t>306120.00</t>
+  </si>
+  <si>
+    <t>360000.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>51650.00</t>
+  </si>
+  <si>
+    <t>173.75</t>
+  </si>
+  <si>
+    <t>4100.00</t>
   </si>
 </sst>
 </file>
